--- a/Data/g19.6.xlsx
+++ b/Data/g19.6.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,7 +716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -726,13 +726,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8.051588110590583</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>4.799698304677992</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,11 +749,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.436860101146117</v>
+        <v>8.051588110590583</v>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
@@ -768,11 +770,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9.325245687179454</v>
+        <v>9.436860101146117</v>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
@@ -789,11 +791,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8.037376777513588</v>
+        <v>9.325245687179454</v>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
@@ -810,11 +812,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.280359477540339</v>
+        <v>8.037376777513588</v>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
@@ -831,11 +833,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10.89093488482918</v>
+        <v>8.280359477540339</v>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
@@ -852,11 +854,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.166928807341286</v>
+        <v>10.89093488482918</v>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
@@ -873,11 +875,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7.084115480318882</v>
+        <v>8.166928807341286</v>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
@@ -894,11 +896,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.431270583385684</v>
+        <v>7.084115480318882</v>
       </c>
       <c r="E21" t="inlineStr"/>
     </row>
@@ -915,11 +917,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7.729093310152239</v>
+        <v>8.431270583385684</v>
       </c>
       <c r="E22" t="inlineStr"/>
     </row>
@@ -936,18 +938,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7.227875016115125</v>
+        <v>7.729093310152239</v>
       </c>
       <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -957,18 +959,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8.536436048726094</v>
+        <v>7.227875016115125</v>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -978,11 +980,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8.877792351726137</v>
+        <v>6.934197572390333</v>
       </c>
       <c r="E25" t="inlineStr"/>
     </row>
@@ -999,11 +1001,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8.874810656588055</v>
+        <v>8.536436048726094</v>
       </c>
       <c r="E26" t="inlineStr"/>
     </row>
@@ -1020,11 +1022,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8.088882274168776</v>
+        <v>8.877792351726137</v>
       </c>
       <c r="E27" t="inlineStr"/>
     </row>
@@ -1041,11 +1043,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8.015151823717972</v>
+        <v>8.874810656588055</v>
       </c>
       <c r="E28" t="inlineStr"/>
     </row>
@@ -1062,11 +1064,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9.579573023382123</v>
+        <v>8.088882274168776</v>
       </c>
       <c r="E29" t="inlineStr"/>
     </row>
@@ -1083,11 +1085,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8.12466988786022</v>
+        <v>8.015151823717972</v>
       </c>
       <c r="E30" t="inlineStr"/>
     </row>
@@ -1104,11 +1106,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6.698920718857114</v>
+        <v>9.579573023382123</v>
       </c>
       <c r="E31" t="inlineStr"/>
     </row>
@@ -1125,11 +1127,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7.427514577061521</v>
+        <v>8.12466988786022</v>
       </c>
       <c r="E32" t="inlineStr"/>
     </row>
@@ -1146,11 +1148,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6.564799454491702</v>
+        <v>6.698920718857114</v>
       </c>
       <c r="E33" t="inlineStr"/>
     </row>
@@ -1167,13 +1169,76 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7.427514577061521</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Taxa de homicídios de mulheres jovens</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>6.564799454491702</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taxa de homicídios de mulheres jovens</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>6.649529732317565</v>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Taxa de homicídios de mulheres jovens</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>6.174369221405846</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g19.6.xlsx
+++ b/Data/g19.6.xlsx
@@ -733,7 +733,7 @@
         <v>4.799698304677992</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6.934197572390333</v>
+        <v>7.092506590723399</v>
       </c>
       <c r="E25" t="inlineStr"/>
     </row>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6.174369221405846</v>
+        <v>6.315693015701144</v>
       </c>
       <c r="E37" t="inlineStr"/>
     </row>
